--- a/biology/Botanique/Limonium_sinuatum/Limonium_sinuatum.xlsx
+++ b/biology/Botanique/Limonium_sinuatum/Limonium_sinuatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limonium sinuatum ou Statice sinuata, la saladelle sinuée, aussi nommée limonium à feuilles sinuées, saladelle à feuilles sinuées ou encore statice sinué, est une plante herbacée méditerranéenne de la famille de Plumbaginacées. Elle est cultivée notamment pour former des bouquets secs.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Feuilles en rosace
 Tiges avec des ailettes linéaires tout au long de la tige, caractéristiques de l'espèce
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (21 décembre 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (21 décembre 2020) :
 Limonium sinuatum subsp. beaumerianum (Maire) Sauvage &amp; Vindt
 Limonium sinuatum subsp. bonduellei (F. Lestib.) Sauvage &amp; Vindt
 Limonium sinuatum subsp. sinuatum</t>
